--- a/data/trans_orig/P05A07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A07-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>494198</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>460882</v>
+        <v>464264</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>525343</v>
+        <v>526547</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5081787220543441</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4739203507004654</v>
+        <v>0.4773975230539665</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5402048039363745</v>
+        <v>0.5414426236543257</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>607</v>
@@ -764,19 +764,19 @@
         <v>654558</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>620516</v>
+        <v>618511</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>692677</v>
+        <v>690126</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4912203425076612</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4656731200874345</v>
+        <v>0.4641678748067735</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5198267298165086</v>
+        <v>0.5179123791160846</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1066</v>
@@ -785,19 +785,19 @@
         <v>1148757</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1097914</v>
+        <v>1098255</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1198356</v>
+        <v>1199306</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4983751392083192</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4763175211663617</v>
+        <v>0.4764655414500778</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5198931777683268</v>
+        <v>0.5203053375290875</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>350996</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>322280</v>
+        <v>319006</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>381944</v>
+        <v>382589</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3609254642597605</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3313968556255312</v>
+        <v>0.328030141338893</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3927486740633319</v>
+        <v>0.3934124363503052</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>462</v>
@@ -835,19 +835,19 @@
         <v>491748</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>455546</v>
+        <v>454836</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>526145</v>
+        <v>526481</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3690375151474465</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3418691712337476</v>
+        <v>0.3413365282270395</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3948509936236967</v>
+        <v>0.3951030570449226</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>790</v>
@@ -856,19 +856,19 @@
         <v>842744</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>792775</v>
+        <v>790654</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>891766</v>
+        <v>894573</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3656150139133508</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3439364474740365</v>
+        <v>0.3430163365686461</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3868826959454991</v>
+        <v>0.3881006066507236</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>127295</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>107134</v>
+        <v>105568</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>151122</v>
+        <v>149532</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1308958136858954</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1101648400588331</v>
+        <v>0.1085542187534764</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1553966730892609</v>
+        <v>0.1537622897094284</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>173</v>
@@ -906,19 +906,19 @@
         <v>186209</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>160891</v>
+        <v>160801</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>214199</v>
+        <v>211876</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1397421423448923</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1207423874489681</v>
+        <v>0.120674833040246</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.160747591093013</v>
+        <v>0.1590048359658184</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>292</v>
@@ -927,19 +927,19 @@
         <v>313503</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>282259</v>
+        <v>277519</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>352430</v>
+        <v>346101</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.13600984687833</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1224546855712327</v>
+        <v>0.1203986196021451</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1528976052922681</v>
+        <v>0.1501522009742554</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>1075869</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1033652</v>
+        <v>1027481</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1121367</v>
+        <v>1122691</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5493488140768454</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.527792228391416</v>
+        <v>0.5246411868711233</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5725805194427247</v>
+        <v>0.5732565414812624</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>892</v>
@@ -1052,19 +1052,19 @@
         <v>961545</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>914243</v>
+        <v>920941</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1002169</v>
+        <v>1005946</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.550121713229261</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5230594146354671</v>
+        <v>0.526891561668225</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5733638375942524</v>
+        <v>0.5755249209601272</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1900</v>
@@ -1073,19 +1073,19 @@
         <v>2037413</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1971688</v>
+        <v>1976259</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2104428</v>
+        <v>2100398</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5497133080626563</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5319800556036144</v>
+        <v>0.533213147799046</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.567794468704431</v>
+        <v>0.5667070976284708</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>654462</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>612401</v>
+        <v>611279</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>698192</v>
+        <v>696615</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3341741548515799</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3126976480011764</v>
+        <v>0.3121245985122953</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3565034657341306</v>
+        <v>0.3556980083981826</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>517</v>
@@ -1123,19 +1123,19 @@
         <v>555417</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>516467</v>
+        <v>516431</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>598241</v>
+        <v>595292</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3177667811087875</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2954824582406795</v>
+        <v>0.295462123217001</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3422673029790553</v>
+        <v>0.3405799403914213</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1141</v>
@@ -1144,19 +1144,19 @@
         <v>1209878</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1146014</v>
+        <v>1152585</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1264055</v>
+        <v>1269930</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3264365489381716</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3092054263310638</v>
+        <v>0.3109781741399131</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3410538836461739</v>
+        <v>0.3426390864294458</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>228114</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>201566</v>
+        <v>201328</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>256952</v>
+        <v>258619</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1164770310715747</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.102921335855393</v>
+        <v>0.1027998689121955</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1312018828793319</v>
+        <v>0.1320534271393715</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>218</v>
@@ -1194,19 +1194,19 @@
         <v>230915</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>204400</v>
+        <v>203268</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>260311</v>
+        <v>261644</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1321115056619515</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1169417570310158</v>
+        <v>0.1162940877751317</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1489298534407828</v>
+        <v>0.1496926121399269</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>437</v>
@@ -1215,19 +1215,19 @@
         <v>459028</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>423386</v>
+        <v>417779</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>503465</v>
+        <v>503058</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1238501429991721</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1142334505744032</v>
+        <v>0.112720744500617</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1358396948193432</v>
+        <v>0.1357298213905025</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>224843</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>200477</v>
+        <v>200329</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>247763</v>
+        <v>246199</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4672726474571745</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4166355646386791</v>
+        <v>0.4163275781122243</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5149069856115182</v>
+        <v>0.5116547750329958</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>203</v>
@@ -1340,19 +1340,19 @@
         <v>223361</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>201897</v>
+        <v>198980</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>244194</v>
+        <v>244460</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4870175218347638</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4402168133989094</v>
+        <v>0.43385676455042</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5324411178374282</v>
+        <v>0.5330210273208215</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>407</v>
@@ -1361,19 +1361,19 @@
         <v>448205</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>416988</v>
+        <v>414249</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>477506</v>
+        <v>479624</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4769082002585928</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4436928209289945</v>
+        <v>0.4407780714512231</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5080862967735839</v>
+        <v>0.5103402009629002</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>181212</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>158453</v>
+        <v>160472</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>203836</v>
+        <v>204397</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3765991259545496</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.32929943889929</v>
+        <v>0.3334965642250436</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4236154551850232</v>
+        <v>0.4247820633495567</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>149</v>
@@ -1411,19 +1411,19 @@
         <v>168743</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>146322</v>
+        <v>148818</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>190067</v>
+        <v>192910</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3679278250210382</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3190413257532676</v>
+        <v>0.3244841691102047</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4144235169381946</v>
+        <v>0.4206212610060584</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>311</v>
@@ -1432,19 +1432,19 @@
         <v>349956</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>319425</v>
+        <v>320675</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>381877</v>
+        <v>385176</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3723675073377875</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3398809963744768</v>
+        <v>0.3412114878560979</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4063324367251066</v>
+        <v>0.4098434868033035</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>75126</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>60384</v>
+        <v>59562</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>93165</v>
+        <v>92515</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1561282265882759</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1254915273535611</v>
+        <v>0.1237839694130556</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1936163989198522</v>
+        <v>0.1922655437527434</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>60</v>
@@ -1482,19 +1482,19 @@
         <v>66527</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>52000</v>
+        <v>51333</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>82652</v>
+        <v>84767</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.145054653144198</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.113381835717548</v>
+        <v>0.1119265901536233</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1802154189973299</v>
+        <v>0.1848268638530105</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>132</v>
@@ -1503,19 +1503,19 @@
         <v>141653</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>118438</v>
+        <v>116404</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>167011</v>
+        <v>163883</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1507242924036198</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1260233813787885</v>
+        <v>0.1238586924974911</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1777066265185648</v>
+        <v>0.1743786635364172</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>1794910</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1737533</v>
+        <v>1735086</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1854476</v>
+        <v>1854704</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5260404026579727</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5092245482254248</v>
+        <v>0.5085073664676042</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.543497533936295</v>
+        <v>0.5435642451642293</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1702</v>
@@ -1628,19 +1628,19 @@
         <v>1839464</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1772112</v>
+        <v>1778310</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1897297</v>
+        <v>1900899</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5197662859527921</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5007349231532946</v>
+        <v>0.5024863018548386</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.536107761118329</v>
+        <v>0.5371254709334424</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3373</v>
@@ -1649,19 +1649,19 @@
         <v>3634375</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3553086</v>
+        <v>3550231</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3723703</v>
+        <v>3713397</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5228460711695303</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5111517774371376</v>
+        <v>0.5107411150925184</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5356970317916978</v>
+        <v>0.5342142650673175</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>1186670</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1131855</v>
+        <v>1126900</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1245590</v>
+        <v>1245421</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3477813918126103</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3317164551805321</v>
+        <v>0.3302642445415191</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3650491921218343</v>
+        <v>0.3649996998209278</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1128</v>
@@ -1699,19 +1699,19 @@
         <v>1215908</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1159822</v>
+        <v>1158487</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1279452</v>
+        <v>1274798</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3435717788150767</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.327723737511276</v>
+        <v>0.327346785591148</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3615270768455868</v>
+        <v>0.3602119947028424</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2242</v>
@@ -1720,19 +1720,19 @@
         <v>2402578</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2323418</v>
+        <v>2324188</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2481967</v>
+        <v>2478680</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.345638157954516</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3342500840521482</v>
+        <v>0.3343608129865871</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3570590932559364</v>
+        <v>0.3565863144218288</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>430535</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>391209</v>
+        <v>393548</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>472638</v>
+        <v>472821</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.126178205529417</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.114652980728033</v>
+        <v>0.1153383042777471</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1385175277289706</v>
+        <v>0.138571154789103</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>451</v>
@@ -1770,19 +1770,19 @@
         <v>483650</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>444202</v>
+        <v>442143</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>524625</v>
+        <v>525049</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1366619352321312</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1255153683577665</v>
+        <v>0.1249337679965771</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1482400381850095</v>
+        <v>0.1483598977254318</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>861</v>
@@ -1791,19 +1791,19 @@
         <v>914184</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>850873</v>
+        <v>857115</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>968793</v>
+        <v>974639</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1315157708759538</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1224077508924684</v>
+        <v>0.1233057751643397</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1393718492160048</v>
+        <v>0.1402129193268555</v>
       </c>
     </row>
     <row r="19">
@@ -2134,19 +2134,19 @@
         <v>492502</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>466079</v>
+        <v>466777</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>516183</v>
+        <v>518579</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6572385531002568</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6219769403119154</v>
+        <v>0.6229078369561021</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6888399660901269</v>
+        <v>0.692038072563629</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>584</v>
@@ -2155,19 +2155,19 @@
         <v>649555</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>616797</v>
+        <v>618078</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>678408</v>
+        <v>679591</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6587430081104333</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6255216623883737</v>
+        <v>0.6268205759258944</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6880039321960074</v>
+        <v>0.6892043600324288</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1083</v>
@@ -2176,19 +2176,19 @@
         <v>1142057</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1099773</v>
+        <v>1103747</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1179858</v>
+        <v>1180565</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6580933813325737</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6337279343906229</v>
+        <v>0.6360174085043314</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6798753294144955</v>
+        <v>0.6802828145068133</v>
       </c>
     </row>
     <row r="5">
@@ -2205,19 +2205,19 @@
         <v>185540</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>163810</v>
+        <v>163177</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>209194</v>
+        <v>207898</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2476014796472089</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.218602851967178</v>
+        <v>0.2177573067897452</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2791665619904112</v>
+        <v>0.2774372501300424</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>210</v>
@@ -2226,19 +2226,19 @@
         <v>231986</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>205393</v>
+        <v>207018</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>260034</v>
+        <v>261449</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2352670486879147</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.208298150477169</v>
+        <v>0.2099464761939215</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2637118951804674</v>
+        <v>0.2651477345871618</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>397</v>
@@ -2247,19 +2247,19 @@
         <v>417526</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>381038</v>
+        <v>381220</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>457767</v>
+        <v>453513</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.240593081428421</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2195672714294803</v>
+        <v>0.21967207188763</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.26378126654769</v>
+        <v>0.2613302533790821</v>
       </c>
     </row>
     <row r="6">
@@ -2276,19 +2276,19 @@
         <v>71308</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>55954</v>
+        <v>56684</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>88355</v>
+        <v>88370</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09515996725253435</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07467012228391948</v>
+        <v>0.07564425280363851</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1179087923390684</v>
+        <v>0.1179280970576202</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>90</v>
@@ -2297,19 +2297,19 @@
         <v>104512</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>85145</v>
+        <v>84957</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>126068</v>
+        <v>127087</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.105989943201652</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08634906591019831</v>
+        <v>0.08615865047764532</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1278508827025849</v>
+        <v>0.1288851441283962</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>161</v>
@@ -2318,19 +2318,19 @@
         <v>175820</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>151238</v>
+        <v>149088</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>203723</v>
+        <v>203144</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1013135372390054</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08714860682934157</v>
+        <v>0.08590984033692425</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1173921868929743</v>
+        <v>0.1170587662265874</v>
       </c>
     </row>
     <row r="7">
@@ -2422,19 +2422,19 @@
         <v>1362494</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1318750</v>
+        <v>1314377</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1406493</v>
+        <v>1406485</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6586043921686752</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6374593739581655</v>
+        <v>0.635345498617483</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6798725535826073</v>
+        <v>0.6798685069547634</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1264</v>
@@ -2443,19 +2443,19 @@
         <v>1312956</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1270842</v>
+        <v>1272547</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1353072</v>
+        <v>1358624</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6625604363828529</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.641308263749482</v>
+        <v>0.6421684947969746</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6828043829151111</v>
+        <v>0.6856060670377649</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2554</v>
@@ -2464,19 +2464,19 @@
         <v>2675451</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2613478</v>
+        <v>2609256</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2735913</v>
+        <v>2740388</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6605398690578815</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6452395998179381</v>
+        <v>0.6441972078583588</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6754674238230147</v>
+        <v>0.6765722929900527</v>
       </c>
     </row>
     <row r="9">
@@ -2493,19 +2493,19 @@
         <v>506380</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>462298</v>
+        <v>466545</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>544851</v>
+        <v>546106</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2447748315709455</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2234664198491142</v>
+        <v>0.2255193144539864</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2633708964875957</v>
+        <v>0.2639776222311408</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>430</v>
@@ -2514,19 +2514,19 @@
         <v>444779</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>406761</v>
+        <v>405006</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>479510</v>
+        <v>481099</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2244497861969462</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2052650228504191</v>
+        <v>0.2043792720852058</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2419761324947927</v>
+        <v>0.2427780848837675</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>899</v>
@@ -2535,19 +2535,19 @@
         <v>951159</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>895432</v>
+        <v>896506</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1002549</v>
+        <v>1006110</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2348308942781153</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2210724160893612</v>
+        <v>0.2213377529282547</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2475184273189399</v>
+        <v>0.2483975659659055</v>
       </c>
     </row>
     <row r="10">
@@ -2564,19 +2564,19 @@
         <v>199885</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>174478</v>
+        <v>176037</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>229328</v>
+        <v>232998</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09662077626037935</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08433943303484701</v>
+        <v>0.08509289583013996</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1108530257962564</v>
+        <v>0.1126269454595577</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>208</v>
@@ -2585,19 +2585,19 @@
         <v>223905</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>196151</v>
+        <v>197568</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>254803</v>
+        <v>256990</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1129897774202009</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09898403606900602</v>
+        <v>0.09969917907414771</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1285818596434866</v>
+        <v>0.1296855743497836</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>394</v>
@@ -2606,19 +2606,19 @@
         <v>423790</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>384755</v>
+        <v>379364</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>465479</v>
+        <v>464187</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1046292366640031</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09499179972697271</v>
+        <v>0.09366085901786743</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1149217015763916</v>
+        <v>0.114602732350309</v>
       </c>
     </row>
     <row r="11">
@@ -2710,19 +2710,19 @@
         <v>344773</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>317426</v>
+        <v>318091</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>364380</v>
+        <v>367504</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6339364843024456</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5836525356763125</v>
+        <v>0.5848758319632466</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6699876501511891</v>
+        <v>0.6757306892615917</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>324</v>
@@ -2731,19 +2731,19 @@
         <v>335247</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>310428</v>
+        <v>313510</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>360523</v>
+        <v>360306</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6138803970933838</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5684344312698778</v>
+        <v>0.5740772683278863</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6601634269198281</v>
+        <v>0.6597669904243638</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>638</v>
@@ -2752,19 +2752,19 @@
         <v>680020</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>645399</v>
+        <v>647514</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>714915</v>
+        <v>711331</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6238877340866291</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5921246083162576</v>
+        <v>0.5940646646013455</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6559021190601353</v>
+        <v>0.652613743324171</v>
       </c>
     </row>
     <row r="13">
@@ -2781,19 +2781,19 @@
         <v>137835</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>117652</v>
+        <v>116965</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>162697</v>
+        <v>161312</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2534382275134062</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2163277915156991</v>
+        <v>0.2150646019270525</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2991514742898042</v>
+        <v>0.29660487584186</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>121</v>
@@ -2802,19 +2802,19 @@
         <v>128831</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>109044</v>
+        <v>108755</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>150016</v>
+        <v>148031</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2359068235357297</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1996743925448298</v>
+        <v>0.1991437736213157</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2746986670017565</v>
+        <v>0.2710631453170152</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>247</v>
@@ -2823,19 +2823,19 @@
         <v>266666</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>239121</v>
+        <v>234595</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>297705</v>
+        <v>295426</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2446544254852297</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2193826064690043</v>
+        <v>0.2152299354283954</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2731305319792907</v>
+        <v>0.2710396896246775</v>
       </c>
     </row>
     <row r="14">
@@ -2852,19 +2852,19 @@
         <v>61253</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>47362</v>
+        <v>47790</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>78846</v>
+        <v>80493</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1126252881841483</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08708467934793529</v>
+        <v>0.08787254359574924</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.144974137950424</v>
+        <v>0.1480033466825236</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>78</v>
@@ -2873,19 +2873,19 @@
         <v>82033</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>67204</v>
+        <v>65677</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>100658</v>
+        <v>100948</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1502127793708865</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1230588072112849</v>
+        <v>0.1202626722491063</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1843171361347021</v>
+        <v>0.1848494547275625</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>136</v>
@@ -2894,19 +2894,19 @@
         <v>143285</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>120528</v>
+        <v>123363</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>165484</v>
+        <v>168743</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1314578404281412</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1105785818954115</v>
+        <v>0.1131801908835449</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1518240955767882</v>
+        <v>0.1548143140448561</v>
       </c>
     </row>
     <row r="15">
@@ -2998,19 +2998,19 @@
         <v>2199769</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2143783</v>
+        <v>2137340</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2253387</v>
+        <v>2255535</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6543094721792948</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6376565743327015</v>
+        <v>0.6357400225470159</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6702576723981853</v>
+        <v>0.6708965394251171</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2172</v>
@@ -3019,19 +3019,19 @@
         <v>2297759</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2234385</v>
+        <v>2241456</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2354283</v>
+        <v>2355668</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.653923384490917</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6358879058241986</v>
+        <v>0.6379001622878239</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6700098349011296</v>
+        <v>0.6704038286808659</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4275</v>
@@ -3040,19 +3040,19 @@
         <v>4497528</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4423567</v>
+        <v>4410188</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4578850</v>
+        <v>4577274</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6541121654951031</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6433554467566127</v>
+        <v>0.6414095462247352</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6659394823356934</v>
+        <v>0.6657102540888213</v>
       </c>
     </row>
     <row r="17">
@@ -3069,19 +3069,19 @@
         <v>829756</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>778709</v>
+        <v>776618</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>880023</v>
+        <v>881560</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2468063274232278</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2316227596401057</v>
+        <v>0.2310006776628412</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2617581546415239</v>
+        <v>0.262215174753847</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>761</v>
@@ -3090,19 +3090,19 @@
         <v>805596</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>755052</v>
+        <v>756625</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>862694</v>
+        <v>853699</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2292659927004143</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2148817148050822</v>
+        <v>0.2153294149198809</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2455157283490005</v>
+        <v>0.2429557133481123</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1543</v>
@@ -3111,19 +3111,19 @@
         <v>1635351</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1562655</v>
+        <v>1559062</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1704308</v>
+        <v>1710394</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2378424951437965</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.227269709497036</v>
+        <v>0.2267471596381764</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2478714582161117</v>
+        <v>0.2487565863318865</v>
       </c>
     </row>
     <row r="18">
@@ -3140,19 +3140,19 @@
         <v>332446</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>297432</v>
+        <v>300612</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>367408</v>
+        <v>373168</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09888420039747733</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0884696565688029</v>
+        <v>0.08941528307006107</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1092833639573657</v>
+        <v>0.1109969179462791</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>376</v>
@@ -3161,19 +3161,19 @@
         <v>410450</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>374772</v>
+        <v>371904</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>455031</v>
+        <v>451975</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1168106228086686</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1066569169909421</v>
+        <v>0.1058407977873024</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1294980368488653</v>
+        <v>0.1286285385103482</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>691</v>
@@ -3182,19 +3182,19 @@
         <v>742895</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>693070</v>
+        <v>697848</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>800080</v>
+        <v>799461</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1080453393611004</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1007987985693746</v>
+        <v>0.1014936833749672</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1163620865752012</v>
+        <v>0.1162721857899351</v>
       </c>
     </row>
     <row r="19">
@@ -3525,19 +3525,19 @@
         <v>440562</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>421315</v>
+        <v>419744</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>459659</v>
+        <v>458403</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7636832756141406</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7303191236678299</v>
+        <v>0.7275974540666066</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7967869374733564</v>
+        <v>0.7946087972442027</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1096</v>
@@ -3546,19 +3546,19 @@
         <v>626041</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>605729</v>
+        <v>606462</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>646096</v>
+        <v>645014</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7621211466669027</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7373941508559194</v>
+        <v>0.7382864106454387</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7865358358391412</v>
+        <v>0.7852187786854572</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1620</v>
@@ -3567,19 +3567,19 @@
         <v>1066603</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1039238</v>
+        <v>1037184</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1096209</v>
+        <v>1095211</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7627656110258723</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7431960105449448</v>
+        <v>0.7417270483994937</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.783937882093401</v>
+        <v>0.7832243281097501</v>
       </c>
     </row>
     <row r="5">
@@ -3596,19 +3596,19 @@
         <v>86951</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>70087</v>
+        <v>71607</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>103203</v>
+        <v>105879</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.15072281577928</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1214900384020789</v>
+        <v>0.124125727737193</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1788955820554317</v>
+        <v>0.183533598501275</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>214</v>
@@ -3617,19 +3617,19 @@
         <v>126184</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>109316</v>
+        <v>109606</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>143070</v>
+        <v>143163</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1536116505076303</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1330771949838994</v>
+        <v>0.1334301751723513</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1741684286406666</v>
+        <v>0.1742824191956429</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>318</v>
@@ -3638,19 +3638,19 @@
         <v>213134</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>192430</v>
+        <v>190739</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>236548</v>
+        <v>237253</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1524198468318407</v>
+        <v>0.1524198468318408</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1376138067669319</v>
+        <v>0.1364045266593044</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1691638664377122</v>
+        <v>0.1696682722838526</v>
       </c>
     </row>
     <row r="6">
@@ -3667,19 +3667,19 @@
         <v>49378</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38338</v>
+        <v>38481</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>63020</v>
+        <v>63081</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.08559390860657946</v>
+        <v>0.08559390860657948</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06645633428598252</v>
+        <v>0.06670382462103389</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1092410138808939</v>
+        <v>0.109345642292313</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>116</v>
@@ -3688,19 +3688,19 @@
         <v>69221</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>57035</v>
+        <v>57614</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>81929</v>
+        <v>82817</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08426720282546706</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06943240682795998</v>
+        <v>0.07013779828197991</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09973748621921498</v>
+        <v>0.1008182097828499</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>177</v>
@@ -3709,19 +3709,19 @@
         <v>118599</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>102651</v>
+        <v>101776</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>140751</v>
+        <v>137128</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08481454214228702</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07340967976396116</v>
+        <v>0.07278363087299057</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.100655825533123</v>
+        <v>0.09806487834220523</v>
       </c>
     </row>
     <row r="7">
@@ -3813,19 +3813,19 @@
         <v>1658610</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1607813</v>
+        <v>1604343</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1701360</v>
+        <v>1703942</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7435826661971837</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7208093411514747</v>
+        <v>0.7192539082827731</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7627479646157428</v>
+        <v>0.7639057045904372</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2205</v>
@@ -3834,19 +3834,19 @@
         <v>1605263</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1564407</v>
+        <v>1566590</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1644212</v>
+        <v>1646001</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7403387789121701</v>
+        <v>0.7403387789121704</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7214962478125736</v>
+        <v>0.7225030945226649</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7583021904823868</v>
+        <v>0.7591269644479962</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3675</v>
@@ -3855,19 +3855,19 @@
         <v>3263873</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3204918</v>
+        <v>3201117</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3327200</v>
+        <v>3324368</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7419836884505402</v>
+        <v>0.7419836884505404</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7285813374300255</v>
+        <v>0.7277173240379464</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7563801327088332</v>
+        <v>0.7557362606665711</v>
       </c>
     </row>
     <row r="9">
@@ -3884,19 +3884,19 @@
         <v>380975</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>342180</v>
+        <v>341331</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>422289</v>
+        <v>423500</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1707976194716153</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1534051506735667</v>
+        <v>0.1530243800270314</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1893189996033033</v>
+        <v>0.1898622052672057</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>445</v>
@@ -3905,19 +3905,19 @@
         <v>348837</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>317117</v>
+        <v>318483</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>382064</v>
+        <v>383519</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1608816564219417</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.14625293767129</v>
+        <v>0.1468827639374471</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1762057526334962</v>
+        <v>0.1768767964841813</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>797</v>
@@ -3926,19 +3926,19 @@
         <v>729812</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>674323</v>
+        <v>676972</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>778560</v>
+        <v>785254</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.1659098404398907</v>
+        <v>0.1659098404398908</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1532955041782977</v>
+        <v>0.1538976492424875</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1769917919067194</v>
+        <v>0.178513697055162</v>
       </c>
     </row>
     <row r="10">
@@ -3955,19 +3955,19 @@
         <v>190980</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>163214</v>
+        <v>161813</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>224325</v>
+        <v>223980</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.08561971433120096</v>
+        <v>0.08561971433120094</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07317173610461904</v>
+        <v>0.07254355699909236</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1005686466517901</v>
+        <v>0.1004138281859839</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>269</v>
@@ -3976,19 +3976,19 @@
         <v>214182</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>187693</v>
+        <v>188735</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>240870</v>
+        <v>243965</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09877956466588803</v>
+        <v>0.09877956466588807</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08656303972003906</v>
+        <v>0.0870436066089884</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1110879877896092</v>
+        <v>0.1125153389918729</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>439</v>
@@ -3997,19 +3997,19 @@
         <v>405162</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>369143</v>
+        <v>370825</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>449044</v>
+        <v>447121</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.09210647110956899</v>
+        <v>0.092106471109569</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08391801561659971</v>
+        <v>0.08430054133682365</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1020821307020388</v>
+        <v>0.1016451545582975</v>
       </c>
     </row>
     <row r="11">
@@ -4101,19 +4101,19 @@
         <v>484215</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>458794</v>
+        <v>456473</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>510507</v>
+        <v>512733</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6804716320483474</v>
+        <v>0.6804716320483472</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6447470740027824</v>
+        <v>0.6414861531524633</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7174200298255845</v>
+        <v>0.7205480985845099</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>671</v>
@@ -4122,19 +4122,19 @@
         <v>486357</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>462034</v>
+        <v>462554</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>508482</v>
+        <v>508643</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6631128909549958</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6299497467428931</v>
+        <v>0.6306582952846592</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6932786536470485</v>
+        <v>0.6934978327686191</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1130</v>
@@ -4143,19 +4143,19 @@
         <v>970572</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>937021</v>
+        <v>934566</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1007374</v>
+        <v>1005555</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6716609708449652</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6484428007529521</v>
+        <v>0.6467439789816356</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6971286618578698</v>
+        <v>0.6958701717485614</v>
       </c>
     </row>
     <row r="13">
@@ -4172,19 +4172,19 @@
         <v>142305</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>120199</v>
+        <v>118991</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>165178</v>
+        <v>167785</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1999823334063224</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1689173662699526</v>
+        <v>0.1672185055452293</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2321266863557199</v>
+        <v>0.2357904136139806</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>197</v>
@@ -4193,19 +4193,19 @@
         <v>145251</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>127094</v>
+        <v>127437</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>165905</v>
+        <v>164447</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1980386739737074</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.17328333642578</v>
+        <v>0.1737507801607767</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2261989401964286</v>
+        <v>0.224211479229495</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>335</v>
@@ -4214,19 +4214,19 @@
         <v>287556</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>259202</v>
+        <v>257538</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>317634</v>
+        <v>319048</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.198995803066165</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.179374443460834</v>
+        <v>0.1782227598831545</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.219811020150334</v>
+        <v>0.220789756853262</v>
       </c>
     </row>
     <row r="14">
@@ -4243,19 +4243,19 @@
         <v>85067</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>68060</v>
+        <v>67548</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>104507</v>
+        <v>106526</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1195460345453303</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09564469866312934</v>
+        <v>0.09492551979116252</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1468648971462192</v>
+        <v>0.1497023086593751</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>134</v>
@@ -4264,19 +4264,19 @@
         <v>101838</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>85448</v>
+        <v>86427</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>120203</v>
+        <v>120626</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1388484350712968</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1165015202423032</v>
+        <v>0.1178373855242764</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1638877875526647</v>
+        <v>0.1644651316397869</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>218</v>
@@ -4285,19 +4285,19 @@
         <v>186905</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>161018</v>
+        <v>164064</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>213797</v>
+        <v>215144</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1293432260888698</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1114287576424609</v>
+        <v>0.1135363191756818</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1479529845217114</v>
+        <v>0.1488853133208198</v>
       </c>
     </row>
     <row r="15">
@@ -4389,19 +4389,19 @@
         <v>2583387</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2521660</v>
+        <v>2526684</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2638329</v>
+        <v>2639807</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7341161355799397</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7165753702194332</v>
+        <v>0.7180029887616975</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7497289479018896</v>
+        <v>0.750148984547195</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3972</v>
@@ -4410,19 +4410,19 @@
         <v>2717661</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2667845</v>
+        <v>2668802</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2766646</v>
+        <v>2767987</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.7299315312064113</v>
+        <v>0.7299315312064112</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7165517410548213</v>
+        <v>0.7168088068370138</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7430882943814906</v>
+        <v>0.7434484761972375</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6425</v>
@@ -4431,19 +4431,19 @@
         <v>5301048</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5220573</v>
+        <v>5221736</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5371860</v>
+        <v>5377025</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.731964860155488</v>
+        <v>0.7319648601554881</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7208529661183886</v>
+        <v>0.7210136169955557</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7417426032592923</v>
+        <v>0.7424557223973136</v>
       </c>
     </row>
     <row r="17">
@@ -4460,19 +4460,19 @@
         <v>610231</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>564534</v>
+        <v>563988</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>663584</v>
+        <v>665096</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1734081283980714</v>
+        <v>0.1734081283980715</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1604225599629849</v>
+        <v>0.1602674068066112</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1885695044187575</v>
+        <v>0.188999145330856</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>856</v>
@@ -4481,19 +4481,19 @@
         <v>620271</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>576427</v>
+        <v>580797</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>661486</v>
+        <v>664153</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1665974125649664</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1548215001745676</v>
+        <v>0.1559952483198709</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1776672579339797</v>
+        <v>0.1783836911680466</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1450</v>
@@ -4502,19 +4502,19 @@
         <v>1230502</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1172817</v>
+        <v>1159196</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1295540</v>
+        <v>1293981</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1699067877008793</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1619416934625467</v>
+        <v>0.1600608864149043</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1788872652052652</v>
+        <v>0.1786719392832034</v>
       </c>
     </row>
     <row r="18">
@@ -4531,19 +4531,19 @@
         <v>325426</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>290136</v>
+        <v>287140</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>363274</v>
+        <v>364400</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.09247573602198877</v>
+        <v>0.09247573602198879</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08244752898488258</v>
+        <v>0.08159591823489176</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1032307479412192</v>
+        <v>0.1035508935728126</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>519</v>
@@ -4552,19 +4552,19 @@
         <v>385241</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>355078</v>
+        <v>351064</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>422930</v>
+        <v>419014</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.1034710562286225</v>
+        <v>0.1034710562286224</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09536970560392194</v>
+        <v>0.09429160369175137</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1135939518152925</v>
+        <v>0.1125423184876768</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>834</v>
@@ -4573,19 +4573,19 @@
         <v>710667</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>660471</v>
+        <v>662261</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>761351</v>
+        <v>762500</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.09812835214363277</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09119736903908013</v>
+        <v>0.09144456026028408</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1051267580250658</v>
+        <v>0.105285474682384</v>
       </c>
     </row>
     <row r="19">
